--- a/常用linux命令与shell.xlsx
+++ b/常用linux命令与shell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="353">
   <si>
     <t>运行</t>
   </si>
@@ -2260,6 +2260,76 @@
     <t>前一个的输出作为后一个的输入</t>
   </si>
   <si>
+    <t>su</t>
+  </si>
+  <si>
+    <r>
+      <t>switch user,切换用户的简写。su – username，不写默认即为root。所以切换到root的身份的命令即为：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>su -root或su -，su root 或su</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+su – USERNAME切换用户后，同时切换到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新用户的工作环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中。
+su USERNAME切换用户后，不改变原用户的工作目录，及其他环境变量目录。</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <r>
+      <t>sudo -u USERNAME COMMAND  授权给哪个用户去以管理员身份执行管理命令
+sudo暂时切换到超级用户模式以执行超级用户权限，提示输入密码时该密码为当前用户的密码，而不是超级账户的密码。不过有时间限制，Ubuntu默认为一次时长</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
     <t>目录操作</t>
   </si>
   <si>
@@ -2343,6 +2413,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>修改文件的创建时间，或</t>
     </r>
     <r>
@@ -2439,6 +2514,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>grep -r update /etc/acpi      以</t>
     </r>
     <r>
@@ -2478,6 +2558,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">AWK 是一种处理文本文件的语言，是一个强大的文本分析工具
 awk [选项参数] 'script' var=value file(s)   </t>
     </r>
@@ -2502,6 +2587,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>print输出：各项目间使用逗号分隔开，而输出时以空白字符串为分隔
 输出重定向：用</t>
     </r>
@@ -2564,6 +2654,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">tar -cvf aa.tar bbb.txt  打包，不压缩
 tar -xvf aa.tar  解压缩
 tar </t>
@@ -2613,6 +2708,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>寻找</t>
     </r>
     <r>
@@ -2791,6 +2891,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>都可以修改原文件</t>
     </r>
     <r>
@@ -2807,6 +2913,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、文件</t>
     </r>
     <r>
@@ -2905,6 +3016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>文件用户数据块中存放的内容是另一文件的路径名的指向</t>
     </r>
     <r>
@@ -2960,6 +3077,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">-S新建一个叫xxx的作业  -ls 显示已创建的   -r 恢复离线的作业 -wipe删除无法使用的  -d将指定任务离线
 </t>
     </r>
@@ -3079,6 +3201,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>查看</t>
     </r>
     <r>
@@ -3104,6 +3231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>磁盘</t>
     </r>
     <r>
@@ -3123,6 +3256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>-a：显示目前资源限制的设定；</t>
     </r>
     <r>
@@ -3171,6 +3310,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在Linux操作系统中，</t>
     </r>
     <r>
@@ -3877,26 +4021,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3904,13 +4042,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3922,9 +4054,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3979,9 +4108,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4053,13 +4179,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1073785</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7877810</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4077,8 +4203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1759585" y="34874835"/>
-          <a:ext cx="8716645" cy="6477000"/>
+          <a:off x="1691005" y="37663755"/>
+          <a:ext cx="8525510" cy="6736080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4358,37 +4484,37 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17.5583333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="116.216666666667" customWidth="1"/>
+    <col min="1" max="1" width="15" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" style="14" customWidth="1"/>
+    <col min="3" max="3" width="116.212962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="56" spans="1:3">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="55.2" spans="1:3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="2:3">
-      <c r="B3" s="20" t="s">
+    <row r="3" ht="27.6" spans="2:3">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -4396,7 +4522,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -4404,7 +4530,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -4412,7 +4538,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -4420,7 +4546,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
@@ -4428,7 +4554,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -4436,10 +4562,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
@@ -4447,7 +4573,7 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -4455,226 +4581,226 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="2:3">
-      <c r="B15" s="19" t="s">
+    <row r="15" ht="41.4" spans="2:3">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="2:3">
-      <c r="B17" s="19" t="s">
+    <row r="17" ht="27.6" spans="2:3">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="22"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="22"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="42" spans="2:3">
-      <c r="B38" s="33" t="s">
+    <row r="38" ht="41.4" spans="2:3">
+      <c r="B38" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="2:3">
-      <c r="B41" s="19" t="s">
+    <row r="41" ht="27.6" spans="2:3">
+      <c r="B41" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C44" t="s">
@@ -4682,264 +4808,264 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="70" spans="1:3">
-      <c r="A47" s="19" t="s">
+    <row r="47" ht="69" spans="1:3">
+      <c r="A47" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" ht="84" spans="2:3">
-      <c r="B49" s="19" t="s">
+    <row r="49" ht="82.8" spans="2:3">
+      <c r="B49" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" ht="84" spans="2:3">
-      <c r="B51" s="19" t="s">
+    <row r="51" ht="82.8" spans="2:3">
+      <c r="B51" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" ht="126" spans="1:3">
-      <c r="A53" s="19" t="s">
+    <row r="53" ht="124.2" spans="1:3">
+      <c r="A53" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="3:3">
-      <c r="C54" s="22" t="s">
+    <row r="54" ht="27.6" spans="3:3">
+      <c r="C54" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="84" spans="1:3">
-      <c r="A55" s="19" t="s">
+    <row r="55" ht="82.8" spans="1:3">
+      <c r="A55" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" ht="42" spans="3:3">
-      <c r="C56" s="21" t="s">
+    <row r="56" ht="41.4" spans="3:3">
+      <c r="C56" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" ht="56" spans="1:3">
-      <c r="A57" s="19" t="s">
+    <row r="57" ht="55.2" spans="1:3">
+      <c r="A57" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="154" spans="1:3">
-      <c r="A58" s="19" t="s">
+    <row r="58" ht="151.8" spans="1:3">
+      <c r="A58" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" ht="42" spans="1:3">
-      <c r="A59" s="19" t="s">
+    <row r="59" ht="41.4" spans="1:3">
+      <c r="A59" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" ht="28" spans="2:3">
-      <c r="B63" s="19" t="s">
+    <row r="63" ht="27.6" spans="2:3">
+      <c r="B63" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" ht="28" spans="2:3">
-      <c r="B66" s="19" t="s">
+    <row r="66" ht="27.6" spans="2:3">
+      <c r="B66" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="2:3">
-      <c r="B70" s="29" t="s">
+    <row r="70" ht="27.6" spans="2:3">
+      <c r="B70" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="25" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" ht="56" spans="1:3">
-      <c r="A73" s="19" t="s">
+    <row r="73" ht="55.2" spans="1:3">
+      <c r="A73" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" ht="84" spans="1:3">
-      <c r="A75" s="19" t="s">
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" ht="82.8" spans="1:3">
+      <c r="A75" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="3:3">
-      <c r="C77" s="22" t="s">
+    <row r="77" ht="27.6" spans="3:3">
+      <c r="C77" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="14" t="s">
         <v>135</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" ht="28" spans="2:3">
-      <c r="B80" s="19" t="s">
+    <row r="80" ht="27.6" spans="2:3">
+      <c r="B80" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="22"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C82" t="s">
@@ -4947,90 +5073,90 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" ht="28" spans="2:3">
-      <c r="B84" s="19" t="s">
+    <row r="84" ht="27.6" spans="2:3">
+      <c r="B84" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" ht="42" spans="1:3">
-      <c r="A94" s="19" t="s">
+    <row r="94" ht="41.4" spans="1:3">
+      <c r="A94" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C97" t="s">
@@ -5038,110 +5164,110 @@
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C98" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" ht="42" spans="1:3">
-      <c r="A100" s="19" t="s">
+    <row r="100" ht="41.4" spans="1:3">
+      <c r="A100" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="101" ht="28" spans="1:3">
-      <c r="A101" s="19" t="s">
+    <row r="101" ht="27.6" spans="1:3">
+      <c r="A101" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="102" ht="28" spans="1:3">
-      <c r="A102" s="19" t="s">
+    <row r="102" ht="27.6" spans="1:3">
+      <c r="A102" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" ht="28" spans="1:3">
-      <c r="A103" s="19" t="s">
+    <row r="103" ht="27.6" spans="1:3">
+      <c r="A103" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" ht="28" spans="1:3">
-      <c r="A104" s="19" t="s">
+    <row r="104" ht="41.4" spans="1:3">
+      <c r="A104" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="27" t="s">
+      <c r="B104" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" ht="56" spans="1:3">
-      <c r="A107" s="19" t="s">
+    <row r="107" ht="55.2" spans="1:3">
+      <c r="A107" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="108" ht="56" spans="2:3">
-      <c r="B108" s="19" t="s">
+    <row r="108" ht="55.2" spans="2:3">
+      <c r="B108" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" ht="84" spans="2:3">
-      <c r="B109" s="19" t="s">
+    <row r="109" ht="82.8" spans="2:3">
+      <c r="B109" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" ht="42" spans="2:3">
-      <c r="B110" s="19" t="s">
+    <row r="110" ht="41.4" spans="2:3">
+      <c r="B110" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="111" ht="70" spans="2:3">
-      <c r="B111" s="19" t="s">
+    <row r="111" ht="69" spans="2:3">
+      <c r="B111" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="17" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5174,17 +5300,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV99"/>
+  <dimension ref="A1:IV101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="122.1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1018518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="122.101851851852" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5199,308 +5325,306 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="2" ht="62.4" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" ht="46.8" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="34" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:256">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="3"/>
-      <c r="CL4" s="3"/>
-      <c r="CM4" s="3"/>
-      <c r="CN4" s="3"/>
-      <c r="CO4" s="3"/>
-      <c r="CP4" s="3"/>
-      <c r="CQ4" s="3"/>
-      <c r="CR4" s="3"/>
-      <c r="CS4" s="3"/>
-      <c r="CT4" s="3"/>
-      <c r="CU4" s="3"/>
-      <c r="CV4" s="3"/>
-      <c r="CW4" s="3"/>
-      <c r="CX4" s="3"/>
-      <c r="CY4" s="3"/>
-      <c r="CZ4" s="3"/>
-      <c r="DA4" s="3"/>
-      <c r="DB4" s="3"/>
-      <c r="DC4" s="3"/>
-      <c r="DD4" s="3"/>
-      <c r="DE4" s="3"/>
-      <c r="DF4" s="3"/>
-      <c r="DG4" s="3"/>
-      <c r="DH4" s="3"/>
-      <c r="DI4" s="3"/>
-      <c r="DJ4" s="3"/>
-      <c r="DK4" s="3"/>
-      <c r="DL4" s="3"/>
-      <c r="DM4" s="3"/>
-      <c r="DN4" s="3"/>
-      <c r="DO4" s="3"/>
-      <c r="DP4" s="3"/>
-      <c r="DQ4" s="3"/>
-      <c r="DR4" s="3"/>
-      <c r="DS4" s="3"/>
-      <c r="DT4" s="3"/>
-      <c r="DU4" s="3"/>
-      <c r="DV4" s="3"/>
-      <c r="DW4" s="3"/>
-      <c r="DX4" s="3"/>
-      <c r="DY4" s="3"/>
-      <c r="DZ4" s="3"/>
-      <c r="EA4" s="3"/>
-      <c r="EB4" s="3"/>
-      <c r="EC4" s="3"/>
-      <c r="ED4" s="3"/>
-      <c r="EE4" s="3"/>
-      <c r="EF4" s="3"/>
-      <c r="EG4" s="3"/>
-      <c r="EH4" s="3"/>
-      <c r="EI4" s="3"/>
-      <c r="EJ4" s="3"/>
-      <c r="EK4" s="3"/>
-      <c r="EL4" s="3"/>
-      <c r="EM4" s="3"/>
-      <c r="EN4" s="3"/>
-      <c r="EO4" s="3"/>
-      <c r="EP4" s="3"/>
-      <c r="EQ4" s="3"/>
-      <c r="ER4" s="3"/>
-      <c r="ES4" s="3"/>
-      <c r="ET4" s="3"/>
-      <c r="EU4" s="3"/>
-      <c r="EV4" s="3"/>
-      <c r="EW4" s="3"/>
-      <c r="EX4" s="3"/>
-      <c r="EY4" s="3"/>
-      <c r="EZ4" s="3"/>
-      <c r="FA4" s="3"/>
-      <c r="FB4" s="3"/>
-      <c r="FC4" s="3"/>
-      <c r="FD4" s="3"/>
-      <c r="FE4" s="3"/>
-      <c r="FF4" s="3"/>
-      <c r="FG4" s="3"/>
-      <c r="FH4" s="3"/>
-      <c r="FI4" s="3"/>
-      <c r="FJ4" s="3"/>
-      <c r="FK4" s="3"/>
-      <c r="FL4" s="3"/>
-      <c r="FM4" s="3"/>
-      <c r="FN4" s="3"/>
-      <c r="FO4" s="3"/>
-      <c r="FP4" s="3"/>
-      <c r="FQ4" s="3"/>
-      <c r="FR4" s="3"/>
-      <c r="FS4" s="3"/>
-      <c r="FT4" s="3"/>
-      <c r="FU4" s="3"/>
-      <c r="FV4" s="3"/>
-      <c r="FW4" s="3"/>
-      <c r="FX4" s="3"/>
-      <c r="FY4" s="3"/>
-      <c r="FZ4" s="3"/>
-      <c r="GA4" s="3"/>
-      <c r="GB4" s="3"/>
-      <c r="GC4" s="3"/>
-      <c r="GD4" s="3"/>
-      <c r="GE4" s="3"/>
-      <c r="GF4" s="3"/>
-      <c r="GG4" s="3"/>
-      <c r="GH4" s="3"/>
-      <c r="GI4" s="3"/>
-      <c r="GJ4" s="3"/>
-      <c r="GK4" s="3"/>
-      <c r="GL4" s="3"/>
-      <c r="GM4" s="3"/>
-      <c r="GN4" s="3"/>
-      <c r="GO4" s="3"/>
-      <c r="GP4" s="3"/>
-      <c r="GQ4" s="3"/>
-      <c r="GR4" s="3"/>
-      <c r="GS4" s="3"/>
-      <c r="GT4" s="3"/>
-      <c r="GU4" s="3"/>
-      <c r="GV4" s="3"/>
-      <c r="GW4" s="3"/>
-      <c r="GX4" s="3"/>
-      <c r="GY4" s="3"/>
-      <c r="GZ4" s="3"/>
-      <c r="HA4" s="3"/>
-      <c r="HB4" s="3"/>
-      <c r="HC4" s="3"/>
-      <c r="HD4" s="3"/>
-      <c r="HE4" s="3"/>
-      <c r="HF4" s="3"/>
-      <c r="HG4" s="3"/>
-      <c r="HH4" s="3"/>
-      <c r="HI4" s="3"/>
-      <c r="HJ4" s="3"/>
-      <c r="HK4" s="3"/>
-      <c r="HL4" s="3"/>
-      <c r="HM4" s="3"/>
-      <c r="HN4" s="3"/>
-      <c r="HO4" s="3"/>
-      <c r="HP4" s="3"/>
-      <c r="HQ4" s="3"/>
-      <c r="HR4" s="3"/>
-      <c r="HS4" s="3"/>
-      <c r="HT4" s="3"/>
-      <c r="HU4" s="3"/>
-      <c r="HV4" s="3"/>
-      <c r="HW4" s="3"/>
-      <c r="HX4" s="3"/>
-      <c r="HY4" s="3"/>
-      <c r="HZ4" s="3"/>
-      <c r="IA4" s="3"/>
-      <c r="IB4" s="3"/>
-      <c r="IC4" s="3"/>
-      <c r="ID4" s="3"/>
-      <c r="IE4" s="3"/>
-      <c r="IF4" s="3"/>
-      <c r="IG4" s="3"/>
-      <c r="IH4" s="3"/>
-      <c r="II4" s="3"/>
-      <c r="IJ4" s="3"/>
-      <c r="IK4" s="3"/>
-      <c r="IL4" s="3"/>
-      <c r="IM4" s="3"/>
-      <c r="IN4" s="3"/>
-      <c r="IO4" s="3"/>
-      <c r="IP4" s="3"/>
-      <c r="IQ4" s="3"/>
-      <c r="IR4" s="3"/>
-      <c r="IS4" s="3"/>
-      <c r="IT4" s="3"/>
-      <c r="IU4" s="3"/>
-      <c r="IV4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="60" spans="1:3">
-      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="29" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:256">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="4"/>
+      <c r="DF6" s="4"/>
+      <c r="DG6" s="4"/>
+      <c r="DH6" s="4"/>
+      <c r="DI6" s="4"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="4"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+      <c r="DZ6" s="4"/>
+      <c r="EA6" s="4"/>
+      <c r="EB6" s="4"/>
+      <c r="EC6" s="4"/>
+      <c r="ED6" s="4"/>
+      <c r="EE6" s="4"/>
+      <c r="EF6" s="4"/>
+      <c r="EG6" s="4"/>
+      <c r="EH6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="EJ6" s="4"/>
+      <c r="EK6" s="4"/>
+      <c r="EL6" s="4"/>
+      <c r="EM6" s="4"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="4"/>
+      <c r="EP6" s="4"/>
+      <c r="EQ6" s="4"/>
+      <c r="ER6" s="4"/>
+      <c r="ES6" s="4"/>
+      <c r="ET6" s="4"/>
+      <c r="EU6" s="4"/>
+      <c r="EV6" s="4"/>
+      <c r="EW6" s="4"/>
+      <c r="EX6" s="4"/>
+      <c r="EY6" s="4"/>
+      <c r="EZ6" s="4"/>
+      <c r="FA6" s="4"/>
+      <c r="FB6" s="4"/>
+      <c r="FC6" s="4"/>
+      <c r="FD6" s="4"/>
+      <c r="FE6" s="4"/>
+      <c r="FF6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
+      <c r="FL6" s="4"/>
+      <c r="FM6" s="4"/>
+      <c r="FN6" s="4"/>
+      <c r="FO6" s="4"/>
+      <c r="FP6" s="4"/>
+      <c r="FQ6" s="4"/>
+      <c r="FR6" s="4"/>
+      <c r="FS6" s="4"/>
+      <c r="FT6" s="4"/>
+      <c r="FU6" s="4"/>
+      <c r="FV6" s="4"/>
+      <c r="FW6" s="4"/>
+      <c r="FX6" s="4"/>
+      <c r="FY6" s="4"/>
+      <c r="FZ6" s="4"/>
+      <c r="GA6" s="4"/>
+      <c r="GB6" s="4"/>
+      <c r="GC6" s="4"/>
+      <c r="GD6" s="4"/>
+      <c r="GE6" s="4"/>
+      <c r="GF6" s="4"/>
+      <c r="GG6" s="4"/>
+      <c r="GH6" s="4"/>
+      <c r="GI6" s="4"/>
+      <c r="GJ6" s="4"/>
+      <c r="GK6" s="4"/>
+      <c r="GL6" s="4"/>
+      <c r="GM6" s="4"/>
+      <c r="GN6" s="4"/>
+      <c r="GO6" s="4"/>
+      <c r="GP6" s="4"/>
+      <c r="GQ6" s="4"/>
+      <c r="GR6" s="4"/>
+      <c r="GS6" s="4"/>
+      <c r="GT6" s="4"/>
+      <c r="GU6" s="4"/>
+      <c r="GV6" s="4"/>
+      <c r="GW6" s="4"/>
+      <c r="GX6" s="4"/>
+      <c r="GY6" s="4"/>
+      <c r="GZ6" s="4"/>
+      <c r="HA6" s="4"/>
+      <c r="HB6" s="4"/>
+      <c r="HC6" s="4"/>
+      <c r="HD6" s="4"/>
+      <c r="HE6" s="4"/>
+      <c r="HF6" s="4"/>
+      <c r="HG6" s="4"/>
+      <c r="HH6" s="4"/>
+      <c r="HI6" s="4"/>
+      <c r="HJ6" s="4"/>
+      <c r="HK6" s="4"/>
+      <c r="HL6" s="4"/>
+      <c r="HM6" s="4"/>
+      <c r="HN6" s="4"/>
+      <c r="HO6" s="4"/>
+      <c r="HP6" s="4"/>
+      <c r="HQ6" s="4"/>
+      <c r="HR6" s="4"/>
+      <c r="HS6" s="4"/>
+      <c r="HT6" s="4"/>
+      <c r="HU6" s="4"/>
+      <c r="HV6" s="4"/>
+      <c r="HW6" s="4"/>
+      <c r="HX6" s="4"/>
+      <c r="HY6" s="4"/>
+      <c r="HZ6" s="4"/>
+      <c r="IA6" s="4"/>
+      <c r="IB6" s="4"/>
+      <c r="IC6" s="4"/>
+      <c r="ID6" s="4"/>
+      <c r="IE6" s="4"/>
+      <c r="IF6" s="4"/>
+      <c r="IG6" s="4"/>
+      <c r="IH6" s="4"/>
+      <c r="II6" s="4"/>
+      <c r="IJ6" s="4"/>
+      <c r="IK6" s="4"/>
+      <c r="IL6" s="4"/>
+      <c r="IM6" s="4"/>
+      <c r="IN6" s="4"/>
+      <c r="IO6" s="4"/>
+      <c r="IP6" s="4"/>
+      <c r="IQ6" s="4"/>
+      <c r="IR6" s="4"/>
+      <c r="IS6" s="4"/>
+      <c r="IT6" s="4"/>
+      <c r="IU6" s="4"/>
+      <c r="IV6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="62.4" spans="1:3">
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>207</v>
       </c>
@@ -5508,560 +5632,556 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A10" s="2" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="C9" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="29" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="75" spans="1:3">
-      <c r="A17" s="2"/>
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="78" spans="1:3">
+      <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="5" t="s">
         <v>230</v>
       </c>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A23" s="2"/>
+    <row r="23" s="1" customFormat="1" ht="46.8" spans="1:3">
+      <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="2"/>
+    <row r="25" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:3">
-      <c r="B29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:3">
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:3">
+      <c r="B31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:3">
+      <c r="B32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:3">
-      <c r="B31" s="8" t="s">
+      <c r="C32" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:3">
+      <c r="B33" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="2:3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="45" spans="2:3">
-      <c r="B34" s="9" t="s">
+      <c r="C33" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="31.2" spans="2:3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="46.8" spans="2:3">
+      <c r="B36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
-      <c r="A37" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="37" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="1" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="5" t="s">
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="75" spans="1:3">
-      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:3">
-      <c r="A40" s="8" t="s">
+    <row r="40" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C40" s="6" t="s">
+    </row>
+    <row r="41" s="1" customFormat="1" ht="78" spans="1:3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="6" t="s">
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="12" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="36" t="s">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="36" t="s">
+      <c r="C44" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="3:3">
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A47" s="8" t="s">
+    <row r="45" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="4" t="s">
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="1" t="s">
+    <row r="47" s="1" customFormat="1" spans="1:3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="49" s="1" customFormat="1" ht="46.8" spans="1:3">
+      <c r="A49" s="6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A51" s="8" t="s">
+      <c r="B49" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="5" t="s">
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="53" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A53" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:3">
       <c r="B53" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:3">
-      <c r="A56" s="13" t="s">
+    <row r="54" s="1" customFormat="1" spans="1:3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="55" s="1" customFormat="1" spans="2:3">
+      <c r="B55" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="90" spans="1:3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="5" t="s">
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:3">
+      <c r="A58" s="9" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="90" spans="1:3">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C58" s="5" t="s">
+    </row>
+    <row r="59" s="1" customFormat="1" ht="93.6" spans="1:3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="60" s="1" customFormat="1" ht="93.6" spans="1:3">
+      <c r="A60" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="30" spans="2:3">
-      <c r="B61" s="8" t="s">
+      <c r="C60" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="2:3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="2:3">
-      <c r="B63" s="8"/>
-      <c r="C63" s="1" t="s">
+    <row r="62" s="1" customFormat="1" spans="1:2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:2">
-      <c r="B64" s="1" t="s">
+    <row r="63" s="1" customFormat="1" ht="31.2" spans="2:3">
+      <c r="B63" s="6" t="s">
         <v>297</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:3">
-      <c r="B65" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C66" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A68" s="13" t="s">
+    <row r="67" s="1" customFormat="1" spans="2:3">
+      <c r="B67" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="C67" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+      <c r="B68" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
-      <c r="A69" s="13"/>
-      <c r="B69" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C69" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14" t="s">
+    </row>
+    <row r="69" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A70" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="16" t="s">
+    <row r="71" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
+      <c r="A71" s="9"/>
+      <c r="B71" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="120" spans="1:3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="1" t="s">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" ht="30" spans="2:3">
-      <c r="B73" s="1" t="s">
+    <row r="73" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="45" spans="2:3">
+    <row r="74" s="1" customFormat="1" ht="124.8" spans="1:3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="31.2" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:3">
-      <c r="A77" s="13" t="s">
         <v>316</v>
       </c>
+      <c r="C75" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="62.4" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C77" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="1" t="s">
+      <c r="C77" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C78" s="5" t="s">
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:3">
+      <c r="A79" s="9" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:1">
-      <c r="A79" s="13"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:3">
-      <c r="A80" s="13"/>
+      <c r="B79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A80" s="9"/>
       <c r="B80" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>324</v>
       </c>
     </row>
+    <row r="81" s="1" customFormat="1" spans="1:1">
+      <c r="A81" s="9"/>
+    </row>
     <row r="82" s="1" customFormat="1" spans="1:3">
-      <c r="A82" s="13"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="1" t="s">
         <v>325</v>
       </c>
@@ -6070,124 +6190,142 @@
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:3">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="9"/>
+      <c r="B84" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C84" s="6" t="s">
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C85" s="4" t="s">
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:3">
+      <c r="A86" s="9" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:3">
-      <c r="A86" s="13"/>
       <c r="B86" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:3">
-      <c r="A87" s="13"/>
+      <c r="C86" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="46.8" spans="1:3">
+      <c r="A87" s="9"/>
       <c r="B87" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C87" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="2:3">
+      <c r="C87" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:3">
+      <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="18" t="s">
         <v>338</v>
       </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:3">
+      <c r="A89" s="9"/>
+      <c r="B89" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:3">
-      <c r="B90" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="195" spans="2:3">
-      <c r="B91" s="8"/>
-      <c r="C91" s="37" t="s">
+      <c r="B90" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="2:2">
-      <c r="B93" s="1" t="s">
+      <c r="C90" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="90" spans="2:3">
+    <row r="92" s="1" customFormat="1" spans="2:3">
+      <c r="B92" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="202.8" spans="2:3">
+      <c r="B93" s="6"/>
+      <c r="C93" s="31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="2:2">
-      <c r="B97" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="2:3">
-      <c r="B98" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C98" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="2:3">
-      <c r="B99" s="6" t="s">
+    <row r="97" s="1" customFormat="1" ht="93.6" spans="2:3">
+      <c r="B97" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C97" s="2" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:3">
+      <c r="B100" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="2:3">
+      <c r="B101" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A26"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A28"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B92:B93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/常用linux命令与shell.xlsx
+++ b/常用linux命令与shell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="15330" windowHeight="8330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="354">
   <si>
     <t>运行</t>
   </si>
@@ -2264,6 +2264,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>switch user,切换用户的简写。su – username，不写默认即为root。所以切换到root的身份的命令即为：</t>
     </r>
     <r>
@@ -2308,6 +2313,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>sudo -u USERNAME COMMAND  授权给哪个用户去以管理员身份执行管理命令
 sudo暂时切换到超级用户模式以执行超级用户权限，提示输入密码时该密码为当前用户的密码，而不是超级账户的密码。不过有时间限制，Ubuntu默认为一次时长</t>
     </r>
@@ -2442,6 +2452,9 @@
   </si>
   <si>
     <t>more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">命令类似 cat ，不过会以一页一页的形式显示，更方便使用者逐页阅读，而最基本的指令就是按空白键（space）就往下一页显示，按 b 键就会往回（back）一页显示，而且还有搜寻字串的功能（与 vi 相似），使用中的说明文件，请按 h </t>
   </si>
   <si>
     <t>less</t>
@@ -4203,8 +4216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1691005" y="37663755"/>
-          <a:ext cx="8525510" cy="6736080"/>
+          <a:off x="1759585" y="36398835"/>
+          <a:ext cx="8716645" cy="6477000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4484,14 +4497,14 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" style="14" customWidth="1"/>
-    <col min="3" max="3" width="116.212962962963" customWidth="1"/>
+    <col min="2" max="2" width="17.5583333333333" style="14" customWidth="1"/>
+    <col min="3" max="3" width="116.216666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="55.2" spans="1:3">
+    <row r="2" ht="56" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -4502,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="27.6" spans="2:3">
+    <row r="3" ht="28" spans="2:3">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -4588,7 +4601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="41.4" spans="2:3">
+    <row r="15" ht="42" spans="2:3">
       <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
@@ -4604,7 +4617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="27.6" spans="2:3">
+    <row r="17" ht="28" spans="2:3">
       <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
@@ -4751,7 +4764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="41.4" spans="2:3">
+    <row r="38" ht="42" spans="2:3">
       <c r="B38" s="28" t="s">
         <v>63</v>
       </c>
@@ -4778,7 +4791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" ht="27.6" spans="2:3">
+    <row r="41" ht="28" spans="2:3">
       <c r="B41" s="14" t="s">
         <v>70</v>
       </c>
@@ -4818,7 +4831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="69" spans="1:3">
+    <row r="47" ht="70" spans="1:3">
       <c r="A47" s="14" t="s">
         <v>80</v>
       </c>
@@ -4834,7 +4847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" ht="82.8" spans="2:3">
+    <row r="49" ht="84" spans="2:3">
       <c r="B49" s="14" t="s">
         <v>84</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" ht="82.8" spans="2:3">
+    <row r="51" ht="84" spans="2:3">
       <c r="B51" s="14" t="s">
         <v>88</v>
       </c>
@@ -4858,7 +4871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" ht="124.2" spans="1:3">
+    <row r="53" ht="126" spans="1:3">
       <c r="A53" s="14" t="s">
         <v>90</v>
       </c>
@@ -4866,12 +4879,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="27.6" spans="3:3">
+    <row r="54" ht="28" spans="3:3">
       <c r="C54" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="82.8" spans="1:3">
+    <row r="55" ht="84" spans="1:3">
       <c r="A55" s="14" t="s">
         <v>93</v>
       </c>
@@ -4879,12 +4892,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" ht="41.4" spans="3:3">
+    <row r="56" ht="42" spans="3:3">
       <c r="C56" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" ht="55.2" spans="1:3">
+    <row r="57" ht="56" spans="1:3">
       <c r="A57" s="14" t="s">
         <v>96</v>
       </c>
@@ -4892,7 +4905,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="151.8" spans="1:3">
+    <row r="58" ht="154" spans="1:3">
       <c r="A58" s="14" t="s">
         <v>98</v>
       </c>
@@ -4900,7 +4913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" ht="41.4" spans="1:3">
+    <row r="59" ht="42" spans="1:3">
       <c r="A59" s="14" t="s">
         <v>100</v>
       </c>
@@ -4927,7 +4940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" ht="27.6" spans="2:3">
+    <row r="63" ht="28" spans="2:3">
       <c r="B63" s="14" t="s">
         <v>107</v>
       </c>
@@ -4951,7 +4964,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" ht="27.6" spans="2:3">
+    <row r="66" ht="28" spans="2:3">
       <c r="B66" s="14" t="s">
         <v>113</v>
       </c>
@@ -4983,7 +4996,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="27.6" spans="2:3">
+    <row r="70" ht="28" spans="2:3">
       <c r="B70" s="24" t="s">
         <v>121</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" ht="55.2" spans="1:3">
+    <row r="73" ht="56" spans="1:3">
       <c r="A73" s="14" t="s">
         <v>127</v>
       </c>
@@ -5021,7 +5034,7 @@
     <row r="74" spans="3:3">
       <c r="C74" s="14"/>
     </row>
-    <row r="75" ht="82.8" spans="1:3">
+    <row r="75" ht="84" spans="1:3">
       <c r="A75" s="14" t="s">
         <v>130</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" ht="27.6" spans="3:3">
+    <row r="77" ht="28" spans="3:3">
       <c r="C77" s="17" t="s">
         <v>134</v>
       </c>
@@ -5050,7 +5063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" ht="27.6" spans="2:3">
+    <row r="80" ht="28" spans="2:3">
       <c r="B80" s="14" t="s">
         <v>137</v>
       </c>
@@ -5080,7 +5093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" ht="27.6" spans="2:3">
+    <row r="84" ht="28" spans="2:3">
       <c r="B84" s="14" t="s">
         <v>144</v>
       </c>
@@ -5144,7 +5157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" ht="41.4" spans="1:3">
+    <row r="94" ht="42" spans="1:3">
       <c r="A94" s="14" t="s">
         <v>160</v>
       </c>
@@ -5171,7 +5184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" ht="41.4" spans="1:3">
+    <row r="100" ht="42" spans="1:3">
       <c r="A100" s="14" t="s">
         <v>167</v>
       </c>
@@ -5179,7 +5192,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" ht="27.6" spans="1:3">
+    <row r="101" ht="28" spans="1:3">
       <c r="A101" s="14" t="s">
         <v>169</v>
       </c>
@@ -5190,7 +5203,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" ht="27.6" spans="1:3">
+    <row r="102" ht="28" spans="1:3">
       <c r="A102" s="14" t="s">
         <v>172</v>
       </c>
@@ -5201,7 +5214,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" ht="27.6" spans="1:3">
+    <row r="103" ht="28" spans="1:3">
       <c r="A103" s="14" t="s">
         <v>175</v>
       </c>
@@ -5212,7 +5225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" ht="41.4" spans="1:3">
+    <row r="104" ht="28" spans="1:3">
       <c r="A104" s="14" t="s">
         <v>178</v>
       </c>
@@ -5223,7 +5236,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" ht="55.2" spans="1:3">
+    <row r="107" ht="56" spans="1:3">
       <c r="A107" s="14" t="s">
         <v>181</v>
       </c>
@@ -5234,7 +5247,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" ht="55.2" spans="2:3">
+    <row r="108" ht="56" spans="2:3">
       <c r="B108" s="14" t="s">
         <v>184</v>
       </c>
@@ -5242,7 +5255,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" ht="82.8" spans="2:3">
+    <row r="109" ht="84" spans="2:3">
       <c r="B109" s="14" t="s">
         <v>186</v>
       </c>
@@ -5250,7 +5263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" ht="41.4" spans="2:3">
+    <row r="110" ht="42" spans="2:3">
       <c r="B110" s="14" t="s">
         <v>188</v>
       </c>
@@ -5258,7 +5271,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" ht="69" spans="2:3">
+    <row r="111" ht="70" spans="2:3">
       <c r="B111" s="14" t="s">
         <v>190</v>
       </c>
@@ -5302,15 +5315,15 @@
   <sheetPr/>
   <dimension ref="A1:IV101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.1018518518519" style="1" customWidth="1"/>
-    <col min="3" max="3" width="122.101851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="122.1" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5325,7 +5338,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" ht="62.4" spans="1:3">
+    <row r="2" ht="60" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -5333,7 +5346,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" ht="46.8" spans="2:3">
+    <row r="3" ht="45" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>198</v>
       </c>
@@ -5614,7 +5627,7 @@
       <c r="IU6" s="4"/>
       <c r="IV6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="62.4" spans="1:3">
+    <row r="7" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>205</v>
@@ -5650,7 +5663,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="31.2" spans="1:3">
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>213</v>
       </c>
@@ -5715,7 +5728,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="78" spans="1:3">
+    <row r="19" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="1" t="s">
         <v>227</v>
@@ -5724,72 +5737,74 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="46.8" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="31.2" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
@@ -5798,16 +5813,16 @@
         <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
@@ -5816,15 +5831,15 @@
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:3">
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:3">
@@ -5832,7 +5847,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:3">
@@ -5840,257 +5855,257 @@
         <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:3">
       <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="31.2" spans="2:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" spans="2:3">
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="46.8" spans="2:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="45" spans="2:3">
       <c r="B36" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="31.2" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="C37" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="31.2" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="78" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="31.2" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="46.8" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="45" spans="1:3">
       <c r="A49" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="31.2" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A53" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:3">
       <c r="B55" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="93.6" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="90" spans="1:3">
       <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="93.6" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="90" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:2">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="31.2" spans="2:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="30" spans="2:3">
       <c r="B63" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:3">
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:3">
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:3">
       <c r="B67" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
       <c r="B68" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
@@ -6098,83 +6113,83 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
       <c r="A70" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
       <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
       <c r="A72" s="9"/>
       <c r="B72" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
       <c r="A73" s="9"/>
       <c r="B73" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="124.8" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="120" spans="1:3">
       <c r="A74" s="9"/>
       <c r="B74" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="31.2" spans="2:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="30" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="62.4" spans="2:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="45" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:3">
       <c r="A79" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="31.2" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A80" s="9"/>
       <c r="B80" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:1">
@@ -6183,129 +6198,129 @@
     <row r="82" s="1" customFormat="1" spans="1:3">
       <c r="A82" s="9"/>
       <c r="B82" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
       <c r="A83" s="9"/>
       <c r="B83" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:3">
       <c r="A84" s="9"/>
       <c r="B84" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:3">
       <c r="A85" s="9"/>
       <c r="B85" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:3">
       <c r="A86" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="46.8" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="45" spans="1:3">
       <c r="A87" s="9"/>
       <c r="B87" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:3">
       <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:3">
       <c r="A89" s="9"/>
       <c r="B89" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:3">
       <c r="B90" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:3">
       <c r="B92" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="202.8" spans="2:3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="195" spans="2:3">
       <c r="B93" s="6"/>
       <c r="C93" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="93.6" spans="2:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="90" spans="2:3">
       <c r="B97" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:3">
       <c r="B100" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:3">
       <c r="B101" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/常用linux命令与shell.xlsx
+++ b/常用linux命令与shell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="356">
   <si>
     <t>运行</t>
   </si>
@@ -2460,6 +2460,18 @@
     <t>less</t>
   </si>
   <si>
+    <t>Linux中的less命令主要用来浏览文件内容，与more命令的用法相似，不同于more命令的是，less命令可往回卷动浏览以看过的部分。less的用法比起more更加的有弹性。在more的时候,我们并没有办法向前面翻,只能往后面看，但若使用了less时，就可以使用 ［pageup］ ［pagedown]等按键的功能来往前往后翻看文件，更容易用来查看一个文件的内容！除此之外，在less里头可以拥有更多的搜索功能，不止可以向下搜，也可以向上搜</t>
+  </si>
+  <si>
+    <t>空格：向下翻一页
+b：向后一页
+/pattern – 向前搜索
+?pattern – 向后搜索
+n – 重复上一个搜索
+N – 反向重复先前的搜索
+q – 退出less</t>
+  </si>
+  <si>
     <t>head</t>
   </si>
   <si>
@@ -2469,12 +2481,10 @@
     <t>tail</t>
   </si>
   <si>
-    <t>是 head 的反向操作，只是取得是后几行
-tail -n 1000 filename：显示最后的1000行
-tail -n +1000 filename：显示1000行之后的</t>
-  </si>
-  <si>
-    <t>tail命令 - 实时监控日志</t>
+    <t>可省略n: head -30 xx.txt</t>
+  </si>
+  <si>
+    <t>tail - 实时监控日志</t>
   </si>
   <si>
     <t>tail -f /var/log/apache2/access.log</t>
@@ -4192,13 +4202,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1073785</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7877810</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4216,7 +4226,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1759585" y="36398835"/>
+          <a:off x="1759585" y="37922835"/>
           <a:ext cx="8716645" cy="6477000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5313,10 +5323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV101"/>
+  <dimension ref="A1:IV102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5746,23 +5756,23 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
+    <row r="21" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="C21" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="105" spans="1:3">
       <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:3">
+    <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
         <v>234</v>
@@ -5780,7 +5790,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:3">
+    <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
         <v>238</v>
@@ -5789,12 +5799,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5803,23 +5813,23 @@
       <c r="B27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>246</v>
@@ -5828,91 +5838,91 @@
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:3">
-      <c r="B31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:3">
       <c r="B32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:3">
+      <c r="B33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:3">
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:3">
+      <c r="B34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:3">
-      <c r="B34" s="6"/>
       <c r="C34" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" spans="2:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:3">
       <c r="B35" s="6"/>
-      <c r="C35" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="2:3">
-      <c r="B36" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="45" spans="2:3">
+      <c r="B37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
+      <c r="C37" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="75" spans="1:3">
+    <row r="41" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>262</v>
@@ -5921,19 +5931,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="6" t="s">
+    <row r="42" s="1" customFormat="1" ht="75" spans="1:3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>267</v>
       </c>
@@ -5950,70 +5960,71 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="30" spans="1:3">
+    <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
+    <row r="46" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A46" s="6"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="29" t="s">
+      <c r="B46" s="8" t="s">
         <v>273</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A49" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="50" s="1" customFormat="1" ht="45" spans="1:3">
+      <c r="A50" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:3">
-      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A53" s="6" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="2" t="s">
+    </row>
+    <row r="54" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A54" s="6" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:3">
-      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="2:3">
+    <row r="55" s="1" customFormat="1" spans="1:3">
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>285</v>
       </c>
@@ -6021,188 +6032,187 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:3">
-      <c r="A58" s="9" t="s">
+    <row r="56" s="1" customFormat="1" spans="2:3">
+      <c r="B56" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:3">
+      <c r="A59" s="9" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="90" spans="1:3">
-      <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="90" spans="1:3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C60" s="2" t="s">
+    </row>
+    <row r="61" s="1" customFormat="1" ht="90" spans="1:3">
+      <c r="A61" s="6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:2">
+    <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="30" spans="2:3">
-      <c r="B63" s="6" t="s">
+      <c r="C62" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C63" s="2" t="s">
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="2:3">
-      <c r="B64" s="6"/>
-      <c r="C64" s="1" t="s">
+    <row r="64" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="B64" s="6" t="s">
         <v>300</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:3">
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:2">
-      <c r="B66" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="2:3">
+    <row r="66" s="1" customFormat="1" spans="2:3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C67" s="29" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+    <row r="68" s="1" customFormat="1" spans="2:3">
       <c r="B68" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="29" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A70" s="9" t="s">
+    <row r="69" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+      <c r="B69" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
-      <c r="A71" s="9"/>
-      <c r="B71" s="1" t="s">
+    <row r="70" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A71" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+    </row>
+    <row r="72" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
       <c r="A72" s="9"/>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
       <c r="A73" s="9"/>
       <c r="B73" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="120" spans="1:3">
+    <row r="74" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
       <c r="A74" s="9"/>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="30" spans="2:3">
+    <row r="75" s="1" customFormat="1" ht="120" spans="1:3">
+      <c r="A75" s="9"/>
       <c r="B75" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="45" spans="2:3">
-      <c r="B77" s="1" t="s">
+    <row r="76" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="B76" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C76" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:3">
-      <c r="A79" s="9" t="s">
+    <row r="78" s="1" customFormat="1" ht="45" spans="2:3">
+      <c r="B78" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C78" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="1" t="s">
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:3">
+      <c r="A80" s="9" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A80" s="9"/>
       <c r="B80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:1">
+    <row r="81" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A81" s="9"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:3">
+      <c r="B81" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:1">
       <c r="A82" s="9"/>
-      <c r="B82" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
       <c r="A83" s="9"/>
@@ -6232,87 +6242,88 @@
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:3">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="9"/>
+      <c r="B86" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:3">
+      <c r="A87" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A87" s="9"/>
       <c r="B87" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:3">
+    <row r="88" s="1" customFormat="1" ht="45" spans="1:3">
       <c r="A88" s="9"/>
       <c r="B88" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:3">
       <c r="A89" s="9"/>
       <c r="B89" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C89" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="2:3">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:3">
+      <c r="A90" s="9"/>
       <c r="B90" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="2:3">
-      <c r="B92" s="6" t="s">
+    <row r="91" s="1" customFormat="1" spans="2:3">
+      <c r="B91" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C91" s="13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="195" spans="2:3">
-      <c r="B93" s="6"/>
-      <c r="C93" s="31" t="s">
+    <row r="93" s="1" customFormat="1" spans="2:3">
+      <c r="B93" s="6" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="2:2">
-      <c r="B95" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="90" spans="2:3">
-      <c r="B97" s="1" t="s">
+    <row r="94" s="1" customFormat="1" ht="195" spans="2:3">
+      <c r="B94" s="6"/>
+      <c r="C94" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C97" s="2" t="s">
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:2">
+      <c r="B96" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="2:2">
-      <c r="B99" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="2:3">
+    <row r="98" s="1" customFormat="1" ht="90" spans="2:3">
+      <c r="B98" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>351</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:3">
@@ -6323,24 +6334,33 @@
         <v>353</v>
       </c>
     </row>
+    <row r="102" s="1" customFormat="1" spans="2:3">
+      <c r="B102" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A28"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A12:A29"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B93:B94"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/常用linux命令与shell.xlsx
+++ b/常用linux命令与shell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shell" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="374">
   <si>
     <t>运行</t>
   </si>
@@ -2359,9 +2359,12 @@
   </si>
   <si>
     <t>-a:显示隐藏文件；-l：显示文件属性与权限    -h表示Human-Readable，使用GB,MB等易读的格式方式显示
+-t：按修改时间排序（最新的在最前面）    -r 反序
 ls -l  ----&gt;  ll
-查看隐藏 -a
-ls | head -n 100  查看前100个文件的名称</t>
+ll -rt 最新的文件在最下面
+ls | head -n 100  查看前100个文件的名称
+ls /usr/local/  查看这个目录下的文件
+ls aaa_*   查看以aaa_开头的文件</t>
   </si>
   <si>
     <t>pwd</t>
@@ -2788,7 +2791,9 @@
     <t>chmod</t>
   </si>
   <si>
-    <t>rwx  101  转换为十进制得到相应的数字
+    <t xml:space="preserve">        rwx   rwx    rwx
+  例如  111  100    000    
+        7    4       0    转换为十进制得到相应的数字  5为101
 chmod [Owner|group|others]
 chmod 740 a.txt</t>
   </si>
@@ -2797,6 +2802,239 @@
   </si>
   <si>
     <t>设置文件所有者和文件关联组，例如改变所有者或组之后，chmod里的权限之前的用户会变为other</t>
+  </si>
+  <si>
+    <t>文件传输</t>
+  </si>
+  <si>
+    <t>连接</t>
+  </si>
+  <si>
+    <r>
+      <t>ftp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [IP] [PORT]   #发起连接请求，登陆后默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二进制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">传输模式 </t>
+    </r>
+  </si>
+  <si>
+    <t>! [linux系统命令]          # 在ftp服务器中执行系统命令，之后回到ftp环境中</t>
+  </si>
+  <si>
+    <t>查看ftp中的文件列表</t>
+  </si>
+  <si>
+    <t>ls
+dir</t>
+  </si>
+  <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cd
+pwd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lcd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 在ftp服务器中切换本地工作目录（登陆ftp前的系统中的目录）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    　　　　# 查看当前所在的系统工作目录 </t>
+    </r>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <r>
+      <t>下载</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aaa1　　　　# 下载aaa1文件
+get aaa2 aaa3　　　　# 下载aaa2文件，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为aaa3
+下载</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">文件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mget</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aaa1 aaa2</t>
+    </r>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
+    <t>put
+mput</t>
+  </si>
+  <si>
+    <t>切换传输模式</t>
+  </si>
+  <si>
+    <t>ascii  　　　　　　# 切换为ascii模式
+bin　　　　　　　　# 切换为二进制模式，默认登陆就是二进制传输模式</t>
+  </si>
+  <si>
+    <t>断开连接</t>
+  </si>
+  <si>
+    <r>
+      <t>close　　　　　　# 断开ftp的连接，但是还在会话中，可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>open [IP] [PORT]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重连</t>
+    </r>
+  </si>
+  <si>
+    <t>退出ftp会话</t>
+  </si>
+  <si>
+    <t>quit　　　　# 也可以使用bye和exit</t>
   </si>
   <si>
     <t>重启</t>
@@ -4049,6 +4287,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4064,12 +4305,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4081,9 +4322,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4202,13 +4440,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1073785</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7877810</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4226,8 +4464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1759585" y="37922835"/>
-          <a:ext cx="8716645" cy="6477000"/>
+          <a:off x="1691005" y="44201715"/>
+          <a:ext cx="8525510" cy="6736080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4507,14 +4745,14 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.5583333333333" style="14" customWidth="1"/>
-    <col min="3" max="3" width="116.216666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" style="14" customWidth="1"/>
+    <col min="3" max="3" width="116.212962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="56" spans="1:3">
+    <row r="2" ht="55.2" spans="1:3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="2:3">
+    <row r="3" ht="27.6" spans="2:3">
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -4611,7 +4849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="2:3">
+    <row r="15" ht="41.4" spans="2:3">
       <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
@@ -4627,7 +4865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="2:3">
+    <row r="17" ht="27.6" spans="2:3">
       <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
@@ -4774,7 +5012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="42" spans="2:3">
+    <row r="38" ht="41.4" spans="2:3">
       <c r="B38" s="28" t="s">
         <v>63</v>
       </c>
@@ -4801,7 +5039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="2:3">
+    <row r="41" ht="27.6" spans="2:3">
       <c r="B41" s="14" t="s">
         <v>70</v>
       </c>
@@ -4841,7 +5079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="70" spans="1:3">
+    <row r="47" ht="69" spans="1:3">
       <c r="A47" s="14" t="s">
         <v>80</v>
       </c>
@@ -4857,7 +5095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" ht="84" spans="2:3">
+    <row r="49" ht="82.8" spans="2:3">
       <c r="B49" s="14" t="s">
         <v>84</v>
       </c>
@@ -4873,7 +5111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" ht="84" spans="2:3">
+    <row r="51" ht="82.8" spans="2:3">
       <c r="B51" s="14" t="s">
         <v>88</v>
       </c>
@@ -4881,7 +5119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" ht="126" spans="1:3">
+    <row r="53" ht="124.2" spans="1:3">
       <c r="A53" s="14" t="s">
         <v>90</v>
       </c>
@@ -4889,12 +5127,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="3:3">
+    <row r="54" ht="27.6" spans="3:3">
       <c r="C54" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="84" spans="1:3">
+    <row r="55" ht="82.8" spans="1:3">
       <c r="A55" s="14" t="s">
         <v>93</v>
       </c>
@@ -4902,12 +5140,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" ht="42" spans="3:3">
+    <row r="56" ht="41.4" spans="3:3">
       <c r="C56" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" ht="56" spans="1:3">
+    <row r="57" ht="55.2" spans="1:3">
       <c r="A57" s="14" t="s">
         <v>96</v>
       </c>
@@ -4915,7 +5153,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="154" spans="1:3">
+    <row r="58" ht="151.8" spans="1:3">
       <c r="A58" s="14" t="s">
         <v>98</v>
       </c>
@@ -4923,7 +5161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" ht="42" spans="1:3">
+    <row r="59" ht="41.4" spans="1:3">
       <c r="A59" s="14" t="s">
         <v>100</v>
       </c>
@@ -4950,7 +5188,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" ht="28" spans="2:3">
+    <row r="63" ht="27.6" spans="2:3">
       <c r="B63" s="14" t="s">
         <v>107</v>
       </c>
@@ -4974,7 +5212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" ht="28" spans="2:3">
+    <row r="66" ht="27.6" spans="2:3">
       <c r="B66" s="14" t="s">
         <v>113</v>
       </c>
@@ -5006,7 +5244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="2:3">
+    <row r="70" ht="27.6" spans="2:3">
       <c r="B70" s="24" t="s">
         <v>121</v>
       </c>
@@ -5030,7 +5268,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" ht="56" spans="1:3">
+    <row r="73" ht="55.2" spans="1:3">
       <c r="A73" s="14" t="s">
         <v>127</v>
       </c>
@@ -5044,7 +5282,7 @@
     <row r="74" spans="3:3">
       <c r="C74" s="14"/>
     </row>
-    <row r="75" ht="84" spans="1:3">
+    <row r="75" ht="82.8" spans="1:3">
       <c r="A75" s="14" t="s">
         <v>130</v>
       </c>
@@ -5060,7 +5298,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="3:3">
+    <row r="77" ht="27.6" spans="3:3">
       <c r="C77" s="17" t="s">
         <v>134</v>
       </c>
@@ -5073,7 +5311,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" ht="28" spans="2:3">
+    <row r="80" ht="27.6" spans="2:3">
       <c r="B80" s="14" t="s">
         <v>137</v>
       </c>
@@ -5103,7 +5341,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" ht="28" spans="2:3">
+    <row r="84" ht="27.6" spans="2:3">
       <c r="B84" s="14" t="s">
         <v>144</v>
       </c>
@@ -5167,7 +5405,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" ht="42" spans="1:3">
+    <row r="94" ht="41.4" spans="1:3">
       <c r="A94" s="14" t="s">
         <v>160</v>
       </c>
@@ -5194,7 +5432,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" ht="42" spans="1:3">
+    <row r="100" ht="41.4" spans="1:3">
       <c r="A100" s="14" t="s">
         <v>167</v>
       </c>
@@ -5202,7 +5440,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" ht="28" spans="1:3">
+    <row r="101" ht="27.6" spans="1:3">
       <c r="A101" s="14" t="s">
         <v>169</v>
       </c>
@@ -5213,7 +5451,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" ht="28" spans="1:3">
+    <row r="102" ht="27.6" spans="1:3">
       <c r="A102" s="14" t="s">
         <v>172</v>
       </c>
@@ -5224,7 +5462,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" ht="28" spans="1:3">
+    <row r="103" ht="27.6" spans="1:3">
       <c r="A103" s="14" t="s">
         <v>175</v>
       </c>
@@ -5235,7 +5473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" ht="28" spans="1:3">
+    <row r="104" ht="41.4" spans="1:3">
       <c r="A104" s="14" t="s">
         <v>178</v>
       </c>
@@ -5246,7 +5484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" ht="56" spans="1:3">
+    <row r="107" ht="55.2" spans="1:3">
       <c r="A107" s="14" t="s">
         <v>181</v>
       </c>
@@ -5257,7 +5495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" ht="56" spans="2:3">
+    <row r="108" ht="55.2" spans="2:3">
       <c r="B108" s="14" t="s">
         <v>184</v>
       </c>
@@ -5265,7 +5503,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" ht="84" spans="2:3">
+    <row r="109" ht="82.8" spans="2:3">
       <c r="B109" s="14" t="s">
         <v>186</v>
       </c>
@@ -5273,7 +5511,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" ht="42" spans="2:3">
+    <row r="110" ht="41.4" spans="2:3">
       <c r="B110" s="14" t="s">
         <v>188</v>
       </c>
@@ -5281,7 +5519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" ht="70" spans="2:3">
+    <row r="111" ht="69" spans="2:3">
       <c r="B111" s="14" t="s">
         <v>190</v>
       </c>
@@ -5323,17 +5561,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IV111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="122.1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1018518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="122.101851851852" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5348,24 +5586,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" ht="60" spans="1:3">
+    <row r="2" ht="62.4" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="2:3">
+    <row r="3" ht="46.8" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5376,269 +5614,269 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:256">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4"/>
-      <c r="BR6" s="4"/>
-      <c r="BS6" s="4"/>
-      <c r="BT6" s="4"/>
-      <c r="BU6" s="4"/>
-      <c r="BV6" s="4"/>
-      <c r="BW6" s="4"/>
-      <c r="BX6" s="4"/>
-      <c r="BY6" s="4"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="4"/>
-      <c r="CH6" s="4"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="4"/>
-      <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
-      <c r="CQ6" s="4"/>
-      <c r="CR6" s="4"/>
-      <c r="CS6" s="4"/>
-      <c r="CT6" s="4"/>
-      <c r="CU6" s="4"/>
-      <c r="CV6" s="4"/>
-      <c r="CW6" s="4"/>
-      <c r="CX6" s="4"/>
-      <c r="CY6" s="4"/>
-      <c r="CZ6" s="4"/>
-      <c r="DA6" s="4"/>
-      <c r="DB6" s="4"/>
-      <c r="DC6" s="4"/>
-      <c r="DD6" s="4"/>
-      <c r="DE6" s="4"/>
-      <c r="DF6" s="4"/>
-      <c r="DG6" s="4"/>
-      <c r="DH6" s="4"/>
-      <c r="DI6" s="4"/>
-      <c r="DJ6" s="4"/>
-      <c r="DK6" s="4"/>
-      <c r="DL6" s="4"/>
-      <c r="DM6" s="4"/>
-      <c r="DN6" s="4"/>
-      <c r="DO6" s="4"/>
-      <c r="DP6" s="4"/>
-      <c r="DQ6" s="4"/>
-      <c r="DR6" s="4"/>
-      <c r="DS6" s="4"/>
-      <c r="DT6" s="4"/>
-      <c r="DU6" s="4"/>
-      <c r="DV6" s="4"/>
-      <c r="DW6" s="4"/>
-      <c r="DX6" s="4"/>
-      <c r="DY6" s="4"/>
-      <c r="DZ6" s="4"/>
-      <c r="EA6" s="4"/>
-      <c r="EB6" s="4"/>
-      <c r="EC6" s="4"/>
-      <c r="ED6" s="4"/>
-      <c r="EE6" s="4"/>
-      <c r="EF6" s="4"/>
-      <c r="EG6" s="4"/>
-      <c r="EH6" s="4"/>
-      <c r="EI6" s="4"/>
-      <c r="EJ6" s="4"/>
-      <c r="EK6" s="4"/>
-      <c r="EL6" s="4"/>
-      <c r="EM6" s="4"/>
-      <c r="EN6" s="4"/>
-      <c r="EO6" s="4"/>
-      <c r="EP6" s="4"/>
-      <c r="EQ6" s="4"/>
-      <c r="ER6" s="4"/>
-      <c r="ES6" s="4"/>
-      <c r="ET6" s="4"/>
-      <c r="EU6" s="4"/>
-      <c r="EV6" s="4"/>
-      <c r="EW6" s="4"/>
-      <c r="EX6" s="4"/>
-      <c r="EY6" s="4"/>
-      <c r="EZ6" s="4"/>
-      <c r="FA6" s="4"/>
-      <c r="FB6" s="4"/>
-      <c r="FC6" s="4"/>
-      <c r="FD6" s="4"/>
-      <c r="FE6" s="4"/>
-      <c r="FF6" s="4"/>
-      <c r="FG6" s="4"/>
-      <c r="FH6" s="4"/>
-      <c r="FI6" s="4"/>
-      <c r="FJ6" s="4"/>
-      <c r="FK6" s="4"/>
-      <c r="FL6" s="4"/>
-      <c r="FM6" s="4"/>
-      <c r="FN6" s="4"/>
-      <c r="FO6" s="4"/>
-      <c r="FP6" s="4"/>
-      <c r="FQ6" s="4"/>
-      <c r="FR6" s="4"/>
-      <c r="FS6" s="4"/>
-      <c r="FT6" s="4"/>
-      <c r="FU6" s="4"/>
-      <c r="FV6" s="4"/>
-      <c r="FW6" s="4"/>
-      <c r="FX6" s="4"/>
-      <c r="FY6" s="4"/>
-      <c r="FZ6" s="4"/>
-      <c r="GA6" s="4"/>
-      <c r="GB6" s="4"/>
-      <c r="GC6" s="4"/>
-      <c r="GD6" s="4"/>
-      <c r="GE6" s="4"/>
-      <c r="GF6" s="4"/>
-      <c r="GG6" s="4"/>
-      <c r="GH6" s="4"/>
-      <c r="GI6" s="4"/>
-      <c r="GJ6" s="4"/>
-      <c r="GK6" s="4"/>
-      <c r="GL6" s="4"/>
-      <c r="GM6" s="4"/>
-      <c r="GN6" s="4"/>
-      <c r="GO6" s="4"/>
-      <c r="GP6" s="4"/>
-      <c r="GQ6" s="4"/>
-      <c r="GR6" s="4"/>
-      <c r="GS6" s="4"/>
-      <c r="GT6" s="4"/>
-      <c r="GU6" s="4"/>
-      <c r="GV6" s="4"/>
-      <c r="GW6" s="4"/>
-      <c r="GX6" s="4"/>
-      <c r="GY6" s="4"/>
-      <c r="GZ6" s="4"/>
-      <c r="HA6" s="4"/>
-      <c r="HB6" s="4"/>
-      <c r="HC6" s="4"/>
-      <c r="HD6" s="4"/>
-      <c r="HE6" s="4"/>
-      <c r="HF6" s="4"/>
-      <c r="HG6" s="4"/>
-      <c r="HH6" s="4"/>
-      <c r="HI6" s="4"/>
-      <c r="HJ6" s="4"/>
-      <c r="HK6" s="4"/>
-      <c r="HL6" s="4"/>
-      <c r="HM6" s="4"/>
-      <c r="HN6" s="4"/>
-      <c r="HO6" s="4"/>
-      <c r="HP6" s="4"/>
-      <c r="HQ6" s="4"/>
-      <c r="HR6" s="4"/>
-      <c r="HS6" s="4"/>
-      <c r="HT6" s="4"/>
-      <c r="HU6" s="4"/>
-      <c r="HV6" s="4"/>
-      <c r="HW6" s="4"/>
-      <c r="HX6" s="4"/>
-      <c r="HY6" s="4"/>
-      <c r="HZ6" s="4"/>
-      <c r="IA6" s="4"/>
-      <c r="IB6" s="4"/>
-      <c r="IC6" s="4"/>
-      <c r="ID6" s="4"/>
-      <c r="IE6" s="4"/>
-      <c r="IF6" s="4"/>
-      <c r="IG6" s="4"/>
-      <c r="IH6" s="4"/>
-      <c r="II6" s="4"/>
-      <c r="IJ6" s="4"/>
-      <c r="IK6" s="4"/>
-      <c r="IL6" s="4"/>
-      <c r="IM6" s="4"/>
-      <c r="IN6" s="4"/>
-      <c r="IO6" s="4"/>
-      <c r="IP6" s="4"/>
-      <c r="IQ6" s="4"/>
-      <c r="IR6" s="4"/>
-      <c r="IS6" s="4"/>
-      <c r="IT6" s="4"/>
-      <c r="IU6" s="4"/>
-      <c r="IV6" s="4"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="60" spans="1:3">
-      <c r="A7" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
+      <c r="CK6" s="5"/>
+      <c r="CL6" s="5"/>
+      <c r="CM6" s="5"/>
+      <c r="CN6" s="5"/>
+      <c r="CO6" s="5"/>
+      <c r="CP6" s="5"/>
+      <c r="CQ6" s="5"/>
+      <c r="CR6" s="5"/>
+      <c r="CS6" s="5"/>
+      <c r="CT6" s="5"/>
+      <c r="CU6" s="5"/>
+      <c r="CV6" s="5"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+      <c r="DA6" s="5"/>
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
+      <c r="DE6" s="5"/>
+      <c r="DF6" s="5"/>
+      <c r="DG6" s="5"/>
+      <c r="DH6" s="5"/>
+      <c r="DI6" s="5"/>
+      <c r="DJ6" s="5"/>
+      <c r="DK6" s="5"/>
+      <c r="DL6" s="5"/>
+      <c r="DM6" s="5"/>
+      <c r="DN6" s="5"/>
+      <c r="DO6" s="5"/>
+      <c r="DP6" s="5"/>
+      <c r="DQ6" s="5"/>
+      <c r="DR6" s="5"/>
+      <c r="DS6" s="5"/>
+      <c r="DT6" s="5"/>
+      <c r="DU6" s="5"/>
+      <c r="DV6" s="5"/>
+      <c r="DW6" s="5"/>
+      <c r="DX6" s="5"/>
+      <c r="DY6" s="5"/>
+      <c r="DZ6" s="5"/>
+      <c r="EA6" s="5"/>
+      <c r="EB6" s="5"/>
+      <c r="EC6" s="5"/>
+      <c r="ED6" s="5"/>
+      <c r="EE6" s="5"/>
+      <c r="EF6" s="5"/>
+      <c r="EG6" s="5"/>
+      <c r="EH6" s="5"/>
+      <c r="EI6" s="5"/>
+      <c r="EJ6" s="5"/>
+      <c r="EK6" s="5"/>
+      <c r="EL6" s="5"/>
+      <c r="EM6" s="5"/>
+      <c r="EN6" s="5"/>
+      <c r="EO6" s="5"/>
+      <c r="EP6" s="5"/>
+      <c r="EQ6" s="5"/>
+      <c r="ER6" s="5"/>
+      <c r="ES6" s="5"/>
+      <c r="ET6" s="5"/>
+      <c r="EU6" s="5"/>
+      <c r="EV6" s="5"/>
+      <c r="EW6" s="5"/>
+      <c r="EX6" s="5"/>
+      <c r="EY6" s="5"/>
+      <c r="EZ6" s="5"/>
+      <c r="FA6" s="5"/>
+      <c r="FB6" s="5"/>
+      <c r="FC6" s="5"/>
+      <c r="FD6" s="5"/>
+      <c r="FE6" s="5"/>
+      <c r="FF6" s="5"/>
+      <c r="FG6" s="5"/>
+      <c r="FH6" s="5"/>
+      <c r="FI6" s="5"/>
+      <c r="FJ6" s="5"/>
+      <c r="FK6" s="5"/>
+      <c r="FL6" s="5"/>
+      <c r="FM6" s="5"/>
+      <c r="FN6" s="5"/>
+      <c r="FO6" s="5"/>
+      <c r="FP6" s="5"/>
+      <c r="FQ6" s="5"/>
+      <c r="FR6" s="5"/>
+      <c r="FS6" s="5"/>
+      <c r="FT6" s="5"/>
+      <c r="FU6" s="5"/>
+      <c r="FV6" s="5"/>
+      <c r="FW6" s="5"/>
+      <c r="FX6" s="5"/>
+      <c r="FY6" s="5"/>
+      <c r="FZ6" s="5"/>
+      <c r="GA6" s="5"/>
+      <c r="GB6" s="5"/>
+      <c r="GC6" s="5"/>
+      <c r="GD6" s="5"/>
+      <c r="GE6" s="5"/>
+      <c r="GF6" s="5"/>
+      <c r="GG6" s="5"/>
+      <c r="GH6" s="5"/>
+      <c r="GI6" s="5"/>
+      <c r="GJ6" s="5"/>
+      <c r="GK6" s="5"/>
+      <c r="GL6" s="5"/>
+      <c r="GM6" s="5"/>
+      <c r="GN6" s="5"/>
+      <c r="GO6" s="5"/>
+      <c r="GP6" s="5"/>
+      <c r="GQ6" s="5"/>
+      <c r="GR6" s="5"/>
+      <c r="GS6" s="5"/>
+      <c r="GT6" s="5"/>
+      <c r="GU6" s="5"/>
+      <c r="GV6" s="5"/>
+      <c r="GW6" s="5"/>
+      <c r="GX6" s="5"/>
+      <c r="GY6" s="5"/>
+      <c r="GZ6" s="5"/>
+      <c r="HA6" s="5"/>
+      <c r="HB6" s="5"/>
+      <c r="HC6" s="5"/>
+      <c r="HD6" s="5"/>
+      <c r="HE6" s="5"/>
+      <c r="HF6" s="5"/>
+      <c r="HG6" s="5"/>
+      <c r="HH6" s="5"/>
+      <c r="HI6" s="5"/>
+      <c r="HJ6" s="5"/>
+      <c r="HK6" s="5"/>
+      <c r="HL6" s="5"/>
+      <c r="HM6" s="5"/>
+      <c r="HN6" s="5"/>
+      <c r="HO6" s="5"/>
+      <c r="HP6" s="5"/>
+      <c r="HQ6" s="5"/>
+      <c r="HR6" s="5"/>
+      <c r="HS6" s="5"/>
+      <c r="HT6" s="5"/>
+      <c r="HU6" s="5"/>
+      <c r="HV6" s="5"/>
+      <c r="HW6" s="5"/>
+      <c r="HX6" s="5"/>
+      <c r="HY6" s="5"/>
+      <c r="HZ6" s="5"/>
+      <c r="IA6" s="5"/>
+      <c r="IB6" s="5"/>
+      <c r="IC6" s="5"/>
+      <c r="ID6" s="5"/>
+      <c r="IE6" s="5"/>
+      <c r="IF6" s="5"/>
+      <c r="IG6" s="5"/>
+      <c r="IH6" s="5"/>
+      <c r="II6" s="5"/>
+      <c r="IJ6" s="5"/>
+      <c r="IK6" s="5"/>
+      <c r="IL6" s="5"/>
+      <c r="IM6" s="5"/>
+      <c r="IN6" s="5"/>
+      <c r="IO6" s="5"/>
+      <c r="IP6" s="5"/>
+      <c r="IQ6" s="5"/>
+      <c r="IR6" s="5"/>
+      <c r="IS6" s="5"/>
+      <c r="IT6" s="5"/>
+      <c r="IU6" s="5"/>
+      <c r="IV6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="109.2" spans="1:3">
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>205</v>
       </c>
@@ -5647,7 +5885,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>207</v>
       </c>
@@ -5656,7 +5894,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>209</v>
       </c>
@@ -5665,7 +5903,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>211</v>
       </c>
@@ -5673,19 +5911,19 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A12" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>215</v>
       </c>
@@ -5694,7 +5932,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>217</v>
       </c>
@@ -5703,7 +5941,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>219</v>
       </c>
@@ -5712,7 +5950,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>221</v>
       </c>
@@ -5721,7 +5959,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>223</v>
       </c>
@@ -5730,7 +5968,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>225</v>
       </c>
@@ -5738,78 +5976,78 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="75" spans="1:3">
-      <c r="A19" s="3"/>
+    <row r="19" s="1" customFormat="1" ht="78" spans="1:3">
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A20" s="3"/>
+    <row r="20" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" s="1" customFormat="1" ht="62.4" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="105" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+    <row r="22" s="1" customFormat="1" ht="109.2" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A26" s="3"/>
+    <row r="26" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>242</v>
       </c>
@@ -5818,38 +6056,38 @@
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5865,12 +6103,12 @@
       <c r="B33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:3">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5878,41 +6116,41 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:3">
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="30" spans="2:3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="2" t="s">
+    <row r="36" s="1" customFormat="1" ht="31.2" spans="2:3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="45" spans="2:3">
-      <c r="B37" s="3" t="s">
+    <row r="37" s="1" customFormat="1" ht="46.8" spans="2:3">
+      <c r="B37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5" t="s">
+    <row r="38" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -5922,26 +6160,26 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A41" s="6"/>
+    <row r="41" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="75" spans="1:3">
-      <c r="A42" s="6"/>
+    <row r="42" s="1" customFormat="1" ht="78" spans="1:3">
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -5952,7 +6190,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>269</v>
       </c>
@@ -5961,7 +6199,7 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="1" t="s">
         <v>271</v>
       </c>
@@ -5969,42 +6207,42 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A46" s="6"/>
+    <row r="46" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="29" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="29" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A50" s="6" t="s">
+    <row r="50" s="1" customFormat="1" ht="78" spans="1:3">
+      <c r="A50" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
-      <c r="A51" s="6"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>280</v>
       </c>
@@ -6012,355 +6250,446 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A54" s="6" t="s">
+    <row r="52" s="2" customFormat="1" spans="1:3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:3">
+      <c r="A53" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:3">
-      <c r="A55" s="6"/>
+    <row r="54" s="2" customFormat="1" spans="1:3">
+      <c r="A54" s="4"/>
+      <c r="C54" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:3">
+      <c r="C55" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" ht="62.4" spans="1:3">
+      <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C56" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
-      <c r="A59" s="9" t="s">
+      <c r="C56" s="3" t="s">
         <v>289</v>
       </c>
+    </row>
+    <row r="57" ht="78" spans="1:3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" ht="31.2" spans="1:3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" ht="31.2" spans="1:3">
+      <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="90" spans="1:3">
-      <c r="A60" s="9"/>
+        <v>294</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="90" spans="1:3">
-      <c r="A61" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:2">
-      <c r="A63" s="6"/>
+      <c r="C61" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A63" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="30" spans="2:3">
-      <c r="B64" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="C63" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:3">
-      <c r="B65" s="6"/>
+      <c r="B65" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="2:3">
-      <c r="B66" s="6"/>
-      <c r="C66" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="2:2">
-      <c r="B67" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:3">
+      <c r="A68" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+        <v>308</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="93.6" spans="1:3">
+      <c r="A69" s="10"/>
       <c r="B69" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
-      <c r="A71" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="93.6" spans="1:3">
+      <c r="A70" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
-      <c r="A72" s="9"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:2">
+      <c r="A72" s="7"/>
       <c r="B72" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="120" spans="1:3">
-      <c r="A75" s="9"/>
-      <c r="B75" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C75" s="12" t="s">
+    </row>
+    <row r="73" s="1" customFormat="1" ht="31.2" spans="2:3">
+      <c r="B73" s="7" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="C73" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="2:3">
+      <c r="B74" s="7"/>
+      <c r="C74" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="2:3">
+      <c r="B75" s="7"/>
+      <c r="C75" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="45" spans="2:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="2:3">
+      <c r="B77" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:3">
-      <c r="A80" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A80" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A81" s="9"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
+      <c r="A81" s="10"/>
       <c r="B81" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:1">
-      <c r="A82" s="9"/>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:3">
-      <c r="A83" s="9"/>
-      <c r="B83" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C83" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:3">
-      <c r="A84" s="9"/>
+      <c r="C81" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+      <c r="A82" s="10"/>
+      <c r="B82" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="124.8" spans="1:3">
+      <c r="A84" s="10"/>
       <c r="B84" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:3">
-      <c r="A85" s="9"/>
+        <v>335</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="31.2" spans="2:3">
       <c r="B85" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:3">
-      <c r="A87" s="9" t="s">
-        <v>336</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="62.4" spans="2:3">
       <c r="B87" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="45" spans="1:3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C87" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:3">
-      <c r="A89" s="9"/>
+      <c r="A89" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="B89" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:3">
-      <c r="A90" s="9"/>
+        <v>342</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="31.2" spans="1:3">
+      <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="2:3">
-      <c r="B91" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C90" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="2:3">
-      <c r="B93" s="6" t="s">
+    <row r="91" s="1" customFormat="1" spans="1:1">
+      <c r="A91" s="10"/>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="C92" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C93" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="195" spans="2:3">
-      <c r="B94" s="6"/>
-      <c r="C94" s="31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="2:2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:3">
+      <c r="A96" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="90" spans="2:3">
+        <v>355</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="46.8" spans="1:3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:3">
+      <c r="A98" s="10"/>
       <c r="B98" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="2:2">
+        <v>359</v>
+      </c>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:3">
+      <c r="A99" s="10"/>
+      <c r="B99" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="2:3">
       <c r="B100" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="2:3">
+      <c r="B102" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="202.8" spans="2:3">
+      <c r="B103" s="7"/>
+      <c r="C103" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="2:2">
+      <c r="B105" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="93.6" spans="2:3">
+      <c r="B107" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="2:2">
+      <c r="B109" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" spans="2:3">
-      <c r="B101" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="2:3">
-      <c r="B102" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>355</v>
+    <row r="110" s="1" customFormat="1" spans="2:3">
+      <c r="B110" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="2:3">
+      <c r="B111" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A29"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A48"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:A99"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B102:B103"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
